--- a/biology/Zoologie/Hexanchidae/Hexanchidae.xlsx
+++ b/biology/Zoologie/Hexanchidae/Hexanchidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hexanchidae ou hexanchidés forment une famille de requins contenant les genres :
 Heptranchias Rafinesque, 1810
 Hexanchus Rafinesque, 1810
 Notorynchus Ayers, 1855
 Toutefois, en 1999, des chercheurs ont proposé la séparation des genres Heptranchias et Notorynchus vers leurs propres familles Heptranchiidae et Notorynchidae respectivement, arguant que ses espèces étaient suffisamment distinctes.
-Ce sont des requins d'eaux profondes (jusqu'à près de 2 000 m de profondeur[2]), à la morphologie relativement primitive. Ils sont caractérisés par leurs fentes branchiales nombreuses et larges, au nombre de 6 (Hexanchus) ou 7 suivant les genres. Ces requins mesurent entre 1 et 5 m de longueur[2]. 
+Ce sont des requins d'eaux profondes (jusqu'à près de 2 000 m de profondeur), à la morphologie relativement primitive. Ils sont caractérisés par leurs fentes branchiales nombreuses et larges, au nombre de 6 (Hexanchus) ou 7 suivant les genres. Ces requins mesurent entre 1 et 5 m de longueur. 
 </t>
         </is>
       </c>
@@ -516,7 +528,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les requins de cette famille ont :
 -une bouche en position subterminale sur la tête
@@ -552,7 +566,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Heptranchias perlo
